--- a/boite_du_fromager/tests/cahier_de_test_boitedufromager.xlsx
+++ b/boite_du_fromager/tests/cahier_de_test_boitedufromager.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierrot\Documents\HB_PharmaPilot\python_1_adou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierrot\Documents\HB_PharmaPilot\python_1_adou\boite_du_fromager\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C70B13-4C69-4252-B858-5FCD9051F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5146BB-244F-43DA-AF27-68BA8726D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Scénario</t>
   </si>
@@ -88,7 +88,10 @@
     <t>verfier que le nombre de fromage correspond aux nombre de lignes</t>
   </si>
   <si>
-    <t>verfier que le nombre de dates correspond aux nombre de lignes</t>
+    <t>verfier que une ligne est bien présente dans la BDD</t>
+  </si>
+  <si>
+    <t>[('Abbaye de la Pierre-qui-Vire', 'Vache', 'Molle à croûte lavée'), ('Banon', 'Chèvre', 'Molle à croûte naturelle')]</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +518,12 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -523,6 +532,12 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -531,13 +546,25 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,6 +573,12 @@
       </c>
       <c r="B11" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
